--- a/taskday4.xlsx
+++ b/taskday4.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP ZBOOK\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{15B8E5A2-E34F-46AB-A8EE-4164F82AD135}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33518791-75EE-4457-844F-A61226E103FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9516" yWindow="0" windowWidth="13620" windowHeight="12336" activeTab="4" xr2:uid="{25905739-750E-42D7-BB40-C010BD81D2BE}"/>
+    <workbookView xWindow="9516" yWindow="0" windowWidth="13620" windowHeight="12336" activeTab="2" xr2:uid="{25905739-750E-42D7-BB40-C010BD81D2BE}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -140,11 +140,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="8" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -614,10 +615,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{741097A8-4A68-44E0-8012-F8ADEA7A3367}">
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:F13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -626,7 +627,7 @@
     <col min="2" max="2" width="14.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>11</v>
       </c>
@@ -634,7 +635,7 @@
         <v>20000</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>12</v>
       </c>
@@ -642,7 +643,7 @@
         <v>0.08</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>13</v>
       </c>
@@ -650,7 +651,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>14</v>
       </c>
@@ -659,30 +660,81 @@
         <v>405.52788576827362</v>
       </c>
     </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="E5" s="1">
+        <v>0.08</v>
+      </c>
+      <c r="F5" s="2">
+        <f>B4</f>
+        <v>405.52788576827362</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="E6" s="1">
+        <v>0.04</v>
+      </c>
+      <c r="F6" s="2">
+        <f t="dataTable" ref="F6:F13" dt2D="0" dtr="0" r1="B2"/>
+        <v>368.330441105327</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="E7" s="4">
+        <v>4.4999999999999998E-2</v>
+      </c>
+      <c r="F7">
+        <v>372.86038483033298</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="E8" s="1">
+        <v>0.05</v>
+      </c>
+      <c r="F8">
+        <v>377.42467288021874</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="E9" s="4">
+        <v>5.5E-2</v>
+      </c>
+      <c r="F9">
+        <v>382.02324343564482</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="E10" s="4">
+        <v>6.5000000000000002E-2</v>
+      </c>
+      <c r="F10">
+        <v>391.32296437457086</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="E11" s="1">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="F11">
+        <v>396.02397080699069</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="E12" s="4">
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="F12">
+        <v>400.75897191247526</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="E13" s="1">
+        <v>0.08</v>
+      </c>
+      <c r="F13">
+        <v>405.52788576827362</v>
+      </c>
+    </row>
   </sheetData>
-  <scenarios current="6" show="6">
-    <scenario name="5%" locked="1" count="1" user="HP ZBOOK" comment="Created by HP ZBOOK on 7/22/2025_x000a_Modified by HP ZBOOK on 7/22/2025">
-      <inputCells r="B2" val="0.06" numFmtId="9"/>
-    </scenario>
-    <scenario name="5.5%" locked="1" count="1" user="HP ZBOOK" comment="Created by HP ZBOOK on 7/22/2025_x000a_Modified by HP ZBOOK on 7/22/2025">
-      <inputCells r="B2" val="0.055" numFmtId="9"/>
-    </scenario>
-    <scenario name="6%" locked="1" count="1" user="HP ZBOOK" comment="Created by HP ZBOOK on 7/22/2025_x000a_Modified by HP ZBOOK on 7/22/2025">
-      <inputCells r="B2" val="0.06" numFmtId="9"/>
-    </scenario>
-    <scenario name="6.5%" locked="1" count="1" user="HP ZBOOK" comment="Created by HP ZBOOK on 7/22/2025_x000a_Modified by HP ZBOOK on 7/22/2025">
-      <inputCells r="B2" val="0.065" numFmtId="9"/>
-    </scenario>
-    <scenario name="7%" locked="1" count="1" user="HP ZBOOK" comment="Created by HP ZBOOK on 7/22/2025_x000a_Modified by HP ZBOOK on 7/22/2025">
-      <inputCells r="B2" val="0.07" numFmtId="9"/>
-    </scenario>
-    <scenario name="7.5%" locked="1" count="1" user="HP ZBOOK" comment="Created by HP ZBOOK on 7/22/2025_x000a_Modified by HP ZBOOK on 7/22/2025">
-      <inputCells r="B2" val="0.075" numFmtId="9"/>
-    </scenario>
-    <scenario name="8%" locked="1" count="1" user="HP ZBOOK" comment="Created by HP ZBOOK on 7/22/2025">
-      <inputCells r="B2" val="0.08" numFmtId="9"/>
-    </scenario>
-  </scenarios>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -692,7 +744,7 @@
   <dimension ref="A1:K8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -938,7 +990,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5F18EF8C-AC7A-4773-869D-06EB6E60A20E}">
   <dimension ref="A1:M10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
